--- a/metrics/API_providers/perplexity_llama31_8b.xlsx
+++ b/metrics/API_providers/perplexity_llama31_8b.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>64.21973684581974</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>4.609412908554077</v>
+        <v>5.115313529968262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>59.91654738031794</v>
+        <v>44.08305962669699</v>
       </c>
       <c r="C3" t="n">
-        <v>3.268573999404907</v>
+        <v>2.917681694030762</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>55.75216662159471</v>
+        <v>41.41897279575409</v>
       </c>
       <c r="C4" t="n">
-        <v>3.273594379425049</v>
+        <v>2.420170783996582</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>58.06544209828733</v>
+        <v>31.06849524403288</v>
       </c>
       <c r="C5" t="n">
-        <v>1.325930595397949</v>
+        <v>26.49970984458923</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" t="n">
-        <v>46.44202067099724</v>
+        <v>24.86518607102353</v>
       </c>
       <c r="C6" t="n">
-        <v>1.47442364692688</v>
+        <v>2.721853494644165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
-        <v>38.68439526826175</v>
+        <v>20.72683916382763</v>
       </c>
       <c r="C7" t="n">
-        <v>4.317459344863892</v>
+        <v>4.96677565574646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
-        <v>33.15535019599432</v>
+        <v>17.76428114165148</v>
       </c>
       <c r="C8" t="n">
-        <v>17.65598559379578</v>
+        <v>1.506910085678101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>37.63757254170152</v>
+        <v>27.41131543191295</v>
       </c>
       <c r="C9" t="n">
-        <v>1.17198657989502</v>
+        <v>5.930018901824951</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n">
-        <v>39.07703283075122</v>
+        <v>32.02960885103764</v>
       </c>
       <c r="C10" t="n">
-        <v>3.903987169265747</v>
+        <v>2.046598196029663</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B11" t="n">
-        <v>40.31177529832363</v>
+        <v>30.12918172114952</v>
       </c>
       <c r="C11" t="n">
-        <v>4.647588729858398</v>
+        <v>1.642555713653564</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="n">
-        <v>43.11809426863768</v>
+        <v>35.44551485562494</v>
       </c>
       <c r="C12" t="n">
-        <v>4.598563432693481</v>
+        <v>1.709905624389648</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>39.53124554514505</v>
+        <v>34.67467273382601</v>
       </c>
       <c r="C13" t="n">
-        <v>20.59629416465759</v>
+        <v>1.898317337036133</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B14" t="n">
-        <v>36.48524337383798</v>
+        <v>36.21029580456126</v>
       </c>
       <c r="C14" t="n">
-        <v>4.455267190933228</v>
+        <v>5.021041870117188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B15" t="n">
-        <v>33.88233607414355</v>
+        <v>34.05043207508635</v>
       </c>
       <c r="C15" t="n">
-        <v>2.14283561706543</v>
+        <v>2.029219388961792</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B16" t="n">
-        <v>36.36664494318863</v>
+        <v>36.92482146126981</v>
       </c>
       <c r="C16" t="n">
-        <v>3.447599411010742</v>
+        <v>4.425150156021118</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" t="n">
-        <v>37.6091551345603</v>
+        <v>36.98389325160124</v>
       </c>
       <c r="C17" t="n">
-        <v>2.903766632080078</v>
+        <v>2.993821382522583</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" t="n">
-        <v>40.31287409261751</v>
+        <v>38.68805393028956</v>
       </c>
       <c r="C18" t="n">
-        <v>4.19232964515686</v>
+        <v>3.273735523223877</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B19" t="n">
-        <v>41.31911163464546</v>
+        <v>38.23752428439845</v>
       </c>
       <c r="C19" t="n">
-        <v>5.7701096534729</v>
+        <v>6.02774977684021</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B20" t="n">
-        <v>39.84858940272859</v>
+        <v>38.99229076619761</v>
       </c>
       <c r="C20" t="n">
-        <v>3.394234418869019</v>
+        <v>2.218807220458984</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" t="n">
-        <v>40.66607125452968</v>
+        <v>39.41306261974805</v>
       </c>
       <c r="C21" t="n">
-        <v>2.673108577728271</v>
+        <v>3.144860506057739</v>
       </c>
     </row>
   </sheetData>
